--- a/0. document/1. 강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
+++ b/0. document/1. 강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019-capstone\참고자료\강좌서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\capstone\0. document\1. 강좌서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393F057-7576-4FBB-BD97-A3D3AF9513E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF1197-F35B-4147-84B8-7177B2142887}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재료 구입 신청(양식)" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>순번</t>
   </si>
@@ -168,1208 +169,220 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ipTIME NAS1 DUAL 1베이 하드미포함|[하드미포함]</t>
-  </si>
-  <si>
-    <t>ipTIME HDD3225 [2.5 외장케이스/USB3.1 Gen2] [블랙]</t>
-  </si>
-  <si>
-    <t>850 series 120GB MZ-7LN120BW</t>
-  </si>
-  <si>
     <t>010-2315-4484</t>
   </si>
   <si>
-    <t>010-2315-4485</t>
-  </si>
-  <si>
     <t>bey4315@naver.com</t>
   </si>
   <si>
-    <t>bey4316@naver.com</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>ipTIME HDD3225</t>
-  </si>
-  <si>
-    <t>주요사항</t>
-  </si>
-  <si>
-    <t>White, Silver, Black 3Color</t>
-  </si>
-  <si>
-    <t>Drive Type</t>
-  </si>
-  <si>
-    <t>S-ATA(S-ATA 3) 2.5" Hard Disk</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>USB3.1 Gen2</t>
-  </si>
-  <si>
-    <t>Transfer Rate</t>
-  </si>
-  <si>
-    <t>10Gbps(USB3.1 Gen2)</t>
-  </si>
-  <si>
-    <t>본체 크기 / 무게</t>
-  </si>
-  <si>
-    <t>패키지 크기 / 무게</t>
-  </si>
-  <si>
-    <t>168 x 116 x 56 mm / 200g (제품 포장, 본체 및 구성품 전체의 무게 포함)</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Windows XP / Vista / 7 / 8 / 8.1 / 10 / Mac O</t>
-  </si>
-  <si>
-    <t>순번 1 규격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번 2 규격</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5인치 USB3.1 Gen2 Type-C외장하드 케이스 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe Parking 기능 탑재 </t>
-  </si>
-  <si>
-    <t>순번 3 규격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+    <t>EA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>포트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>디바이스마트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	DC In, 100/1000Mbps LAN x2, USB 3.0 x1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>라즈베리파이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	Power, RST, USB Copy
-LED	Power, Ready, LAN1, LAN2, HDD, USB
-CPU	Marvell 88F6820 Dual Core CPU (1.6GHz)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>메모리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	2Gbytes (DDR3 DRAM)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>키트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>하드디스크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>본체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	8.9Cm (3.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>인치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>방열판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t>), 6.4Cm (2.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>인치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) SATA HDD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>아답터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> USB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>+MicroSD+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>디스크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>리더기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	NTFS / FAT32 / exFAT / EXT3 / EXT4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+        <family val="2"/>
+      </rPr>
+      <t>+HDMI&amp;LAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
+      <t>케이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
         <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>크기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	236 x 233 x 98 mm / 1478g 
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>본체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구성품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, HDD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대소비전력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	42W
- (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최저소비효율기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만족제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-OS	Windows XP, 7, 8, 8.1, 10, Linux, Mac OS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	Power, RST, USB Copy
-LED	Power, Ready, LAN1, LAN2, HDD, USB
-CPU	Marvell 88F6820 Dual Core CPU (1.6GHz)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메모리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	2Gbytes (DDR3 DRAM)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하드디스크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	8.9Cm (3.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t>), 6.4Cm (2.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) SATA HDD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> USB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디스크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	NTFS / FAT32 / exFAT / EXT3 / EXT4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>본체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>크기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	140 x 205 x 61 mm / 884g (HDD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>크기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	236 x 233 x 98 mm / 1478g 
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>본체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구성품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, HDD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미포함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대소비전력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	42W
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">	12V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어댑터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최저소비효율기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만족제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Verdana"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)
-OS	Windows XP, 7, 8, 8.1, 10, Linux, Mac OS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 x 205 x 61 mm / 884g (HDD 미포함) / 전원12V 외장 어댑터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78 x 129 x 14.5 (mm) / 68g / 전원 USB Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100*69.85*6.8mm / 55g</t>
-  </si>
-  <si>
-    <t>EA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본체(방열판 포함), 고품질 투명케이스, 정격 2.1A 아답터, MicroSD 16GB(Class10), HDMI 케이블(v1.4), Cat.5E LAN 케이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[삼성전자] MicroSDXC, EVO, Class10 , UHS-I 신형 MicroSDXC 128GB (U3) [SD어댑터포함] [MB-MP128GA/KR]</t>
+  </si>
+  <si>
+    <t>[ 메모리카드 - 최대 속도 : 100MB/s ] [ 보증기간 : 10년 ] X-ray 방지 / 생활방수 / 온도보호 / 자기손상방지</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +395,7 @@
     <numFmt numFmtId="177" formatCode="###,###,###,###.###"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,19 +533,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Verdana"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
       <name val="Verdana"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1543,6 +543,32 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Nanum Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF03131"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1786,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1817,7 +843,7 @@
     <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,10 +897,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1922,7 +948,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,11 +963,17 @@
     <xf numFmtId="41" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1957,55 +992,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2386852</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99171</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>7606</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DED2BE-C477-4DFE-B68F-70C484820CE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2980764" y="15441705"/>
-          <a:ext cx="5961529" cy="5543313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2271,53 +1257,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O46"/>
+  <dimension ref="B1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="13" width="22.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="12" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.58203125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +1315,7 @@
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
@@ -2373,28 +1359,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B5" s="34">
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G5" s="16">
-        <v>130900</v>
+        <v>63000</v>
       </c>
       <c r="H5" s="16">
         <f>E5*G5</f>
-        <v>130900</v>
+        <v>189000</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>23</v>
@@ -2418,28 +1404,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>59</v>
+      <c r="C6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
-        <v>15900</v>
+      <c r="G6" s="53">
+        <v>25000</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ref="H6:H11" si="0">E6*G6</f>
-        <v>31800</v>
+        <v>75000</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>23</v>
@@ -2448,10 +1434,10 @@
         <v>24</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>27</v>
@@ -2463,52 +1449,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B7" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="21">
         <v>2</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="23">
-        <v>60000</v>
-      </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="2:15" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="B8" s="34">
         <v>4</v>
       </c>
@@ -2531,7 +1497,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B9" s="36">
         <v>5</v>
       </c>
@@ -2554,7 +1520,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B10" s="36">
         <v>6</v>
       </c>
@@ -2577,7 +1543,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B11" s="34">
         <v>7</v>
       </c>
@@ -2600,7 +1566,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B12" s="37">
         <v>8</v>
       </c>
@@ -2618,7 +1584,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="38"/>
     </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B13" s="39">
         <v>9</v>
       </c>
@@ -2636,7 +1602,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="38"/>
     </row>
-    <row r="14" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B14" s="37">
         <v>10</v>
       </c>
@@ -2654,7 +1620,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="38"/>
     </row>
-    <row r="15" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B15" s="39">
         <v>11</v>
       </c>
@@ -2672,7 +1638,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="38"/>
     </row>
-    <row r="16" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B16" s="37">
         <v>12</v>
       </c>
@@ -2690,7 +1656,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="38"/>
     </row>
-    <row r="17" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B17" s="39">
         <v>13</v>
       </c>
@@ -2708,7 +1674,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="38"/>
     </row>
-    <row r="18" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B18" s="37">
         <v>14</v>
       </c>
@@ -2726,7 +1692,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="38"/>
     </row>
-    <row r="19" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B19" s="37">
         <v>15</v>
       </c>
@@ -2744,7 +1710,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="38"/>
     </row>
-    <row r="20" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B20" s="37">
         <v>16</v>
       </c>
@@ -2762,7 +1728,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="38"/>
     </row>
-    <row r="21" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B21" s="37">
         <v>17</v>
       </c>
@@ -2780,7 +1746,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="38"/>
     </row>
-    <row r="22" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B22" s="37">
         <v>18</v>
       </c>
@@ -2798,7 +1764,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="38"/>
     </row>
-    <row r="23" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B23" s="37">
         <v>19</v>
       </c>
@@ -2816,7 +1782,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="38"/>
     </row>
-    <row r="24" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B24" s="39">
         <v>20</v>
       </c>
@@ -2834,18 +1800,18 @@
       <c r="N24" s="13"/>
       <c r="O24" s="38"/>
     </row>
-    <row r="25" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="46" t="s">
+    <row r="25" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="40">
         <f>SUM(H5:H24)</f>
-        <v>282700</v>
+        <v>264000</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="42"/>
@@ -2855,17 +1821,17 @@
       <c r="N25" s="42"/>
       <c r="O25" s="43"/>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1">
       <c r="C26" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15">
       <c r="C27" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
       <c r="C28" s="25" t="s">
         <v>17</v>
       </c>
@@ -2873,110 +1839,21 @@
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15">
       <c r="C29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
+    <row r="32" spans="2:15" ht="409.5" customHeight="1">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2987,10 +1864,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L6:L7" r:id="rId2" display="bey4314@naver.com" xr:uid="{AAE2AD64-BF99-45A3-A88E-6B191CFFEB06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/0. document/1. 강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
+++ b/0. document/1. 강좌서류/첨부 2. 재료 구입 신청리스트(양식).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\capstone\0. document\1. 강좌서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\2019-capstone\0. document\1. 강좌서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF1197-F35B-4147-84B8-7177B2142887}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34054CBA-8236-49A3-9053-59E14A64C16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1095" windowWidth="19425" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재료 구입 신청(양식)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>순번</t>
   </si>
@@ -145,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하이파이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박은영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,10 +156,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>박은영, 류다인, 김장현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박창섭 교수님</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,6 +374,10 @@
   </si>
   <si>
     <t>[ 메모리카드 - 최대 속도 : 100MB/s ] [ 보증기간 : 10년 ] X-ray 방지 / 생활방수 / 온도보호 / 자기손상방지</t>
+  </si>
+  <si>
+    <t>CEO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -951,6 +946,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,15 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1260,48 +1255,48 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D32" sqref="D32:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="13" width="22.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.58203125" customWidth="1"/>
+    <col min="12" max="13" width="22.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="B3" s="10" t="s">
@@ -1364,89 +1359,89 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="16">
         <v>63000</v>
       </c>
       <c r="H5" s="16">
         <f>E5*G5</f>
-        <v>189000</v>
+        <v>63000</v>
       </c>
       <c r="I5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="19" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>35</v>
+      <c r="C6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="48">
         <v>25000</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ref="H6:H11" si="0">E6*G6</f>
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="I6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1801,17 +1796,17 @@
       <c r="O24" s="38"/>
     </row>
     <row r="25" spans="2:15" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="40">
         <f>SUM(H5:H24)</f>
-        <v>264000</v>
+        <v>88000</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="42"/>
@@ -1845,15 +1840,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="409.5" customHeight="1">
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
